--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
@@ -4,31 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12525"/>
+    <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="1" r:id="rId1"/>
-    <sheet name="AIConfig_2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>##var</t>
   </si>
@@ -81,39 +67,33 @@
     <t>节点参数</t>
   </si>
   <si>
-    <t>AI_Attack</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>AI_XunLuo</t>
-  </si>
-  <si>
-    <t>巡逻</t>
-  </si>
-  <si>
     <t>AI_MonsterXunLuo</t>
   </si>
   <si>
     <t>怪物巡逻</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>int[]</t>
+    <t>AI_MonsterZhuiJi</t>
+  </si>
+  <si>
+    <t>怪物追击</t>
+  </si>
+  <si>
+    <t>AI_MonsterGongJi</t>
+  </si>
+  <si>
+    <t>怪物攻击</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -136,29 +116,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -167,9 +124,107 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,100 +238,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -301,19 +281,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,49 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,91 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,6 +484,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -516,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,6 +532,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,30 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -589,208 +569,207 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1062,24 +1041,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="12.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="15.8761061946903" customWidth="1"/>
+    <col min="3" max="3" width="17.8761061946903" customWidth="1"/>
+    <col min="4" max="4" width="12.3716814159292" customWidth="1"/>
+    <col min="5" max="5" width="21.3716814159292" customWidth="1"/>
+    <col min="6" max="6" width="22.3716814159292" customWidth="1"/>
+    <col min="7" max="7" width="34.6283185840708" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:7">
+    <row r="1" customFormat="1" ht="15.75" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="15" spans="1:7">
+    <row r="2" customFormat="1" ht="15.75" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1125,7 +1104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="15" spans="1:7">
+    <row r="3" customFormat="1" ht="15.75" spans="1:7">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1148,13 +1127,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="16.5" spans="2:6">
+    <row r="4" ht="15" spans="2:6">
       <c r="B4" s="2">
         <f t="shared" ref="B4:B6" si="0">C4*100+D4</f>
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1166,13 +1145,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="2:6">
+    <row r="5" customFormat="1" ht="15" spans="2:6">
       <c r="B5" s="2">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -1184,16 +1163,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="2:6">
+    <row r="6" customFormat="1" ht="15" spans="2:6">
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>301</v>
+        <f>C6*100+D6</f>
+        <v>303</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1203,143 +1182,26 @@
       </c>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="3:7">
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="7:7">
+    <row r="9" spans="3:7">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="3:7">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="6" width="11.75" customWidth="1"/>
-    <col min="7" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="16384" width="11.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" ht="15" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" ht="15" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" ht="15" spans="1:7">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="16.5" spans="2:7">
-      <c r="B4" s="2">
-        <f>C4*100+D4</f>
-        <v>201</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
@@ -79,10 +79,10 @@
     <t>怪物追击</t>
   </si>
   <si>
-    <t>AI_MonsterGongJi</t>
-  </si>
-  <si>
-    <t>怪物攻击</t>
+    <t>AI_MonsterReturn</t>
+  </si>
+  <si>
+    <t>怪物返回</t>
   </si>
 </sst>
 </file>
@@ -91,8 +91,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -116,6 +116,96 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -126,15 +216,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,82 +231,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,28 +259,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -275,25 +275,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,157 +425,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,17 +469,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,24 +489,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,9 +510,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,27 +566,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="6" customFormat="1" ht="15" spans="2:6">
       <c r="B6" s="2">
-        <f>C6*100+D6</f>
+        <f t="shared" si="0"/>
         <v>303</v>
       </c>
       <c r="C6" s="2">

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
@@ -67,22 +67,22 @@
     <t>节点参数</t>
   </si>
   <si>
+    <t>AI_MonsterReturn</t>
+  </si>
+  <si>
+    <t>怪物返回</t>
+  </si>
+  <si>
+    <t>AI_MonsterZhuiJi</t>
+  </si>
+  <si>
+    <t>怪物追击</t>
+  </si>
+  <si>
     <t>AI_MonsterXunLuo</t>
   </si>
   <si>
     <t>怪物巡逻</t>
-  </si>
-  <si>
-    <t>AI_MonsterZhuiJi</t>
-  </si>
-  <si>
-    <t>怪物追击</t>
-  </si>
-  <si>
-    <t>AI_MonsterReturn</t>
-  </si>
-  <si>
-    <t>怪物返回</t>
   </si>
 </sst>
 </file>
@@ -91,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -130,8 +130,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -146,63 +183,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,9 +199,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,17 +254,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,25 +275,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,157 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,23 +472,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,20 +495,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,7 +521,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,16 +540,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,133 +584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1041,10 +1041,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
@@ -1127,9 +1127,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="15" spans="2:6">
+    <row r="4" customFormat="1" ht="15" spans="2:6">
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B6" si="0">C4*100+D4</f>
+        <f>C4*100+D4</f>
         <v>301</v>
       </c>
       <c r="C4" s="2">
@@ -1147,7 +1147,7 @@
     </row>
     <row r="5" customFormat="1" ht="15" spans="2:6">
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
+        <f>C5*100+D5</f>
         <v>302</v>
       </c>
       <c r="C5" s="2">
@@ -1163,9 +1163,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="1" ht="15" spans="2:6">
+    <row r="6" ht="15" spans="2:6">
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
+        <f>C6*100+D6</f>
         <v>303</v>
       </c>
       <c r="C6" s="2">
@@ -1181,13 +1181,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="7:7">
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="G8" s="4"/>
+    <row r="8" spans="7:7">
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3"/>
@@ -1197,7 +1192,12 @@
     <row r="10" spans="3:7">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Datas/AI.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="28695" windowHeight="12990"/>
   </bookViews>
   <sheets>
-    <sheet name="AIConfig_1" sheetId="1" r:id="rId1"/>
+    <sheet name="AIConfig_Pet" sheetId="2" r:id="rId1"/>
+    <sheet name="AIConfig_Monster" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -65,6 +66,30 @@
   </si>
   <si>
     <t>节点参数</t>
+  </si>
+  <si>
+    <t>AI_PetZhuiJi</t>
+  </si>
+  <si>
+    <t>宠物追击</t>
+  </si>
+  <si>
+    <t>AI_PetReturn</t>
+  </si>
+  <si>
+    <t>宠物返回</t>
+  </si>
+  <si>
+    <t>AI_PetFollow</t>
+  </si>
+  <si>
+    <t>宠物跟随</t>
+  </si>
+  <si>
+    <t>AI_PetIdle</t>
+  </si>
+  <si>
+    <t>宠物发呆</t>
   </si>
   <si>
     <t>AI_MonsterReturn</t>
@@ -123,61 +148,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,6 +180,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -199,64 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -275,187 +300,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +494,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,52 +533,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,16 +556,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,31 +609,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,100 +645,97 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1041,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
@@ -1130,6 +1155,192 @@
     <row r="4" customFormat="1" ht="15" spans="2:6">
       <c r="B4" s="2">
         <f>C4*100+D4</f>
+        <v>101</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="15" spans="2:6">
+      <c r="B5" s="2">
+        <f>C5*100+D5</f>
+        <v>102</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="15" spans="2:6">
+      <c r="B6" s="2">
+        <f>C6*100+D6</f>
+        <v>103</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="15" spans="2:6">
+      <c r="B7" s="2">
+        <f>C7*100+D7</f>
+        <v>104</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.85" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="12.5044247787611" customWidth="1"/>
+    <col min="2" max="2" width="15.8761061946903" customWidth="1"/>
+    <col min="3" max="3" width="17.8761061946903" customWidth="1"/>
+    <col min="4" max="4" width="12.3716814159292" customWidth="1"/>
+    <col min="5" max="5" width="21.3716814159292" customWidth="1"/>
+    <col min="6" max="6" width="22.3716814159292" customWidth="1"/>
+    <col min="7" max="7" width="34.6283185840708" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="15.75" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="15.75" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="15.75" spans="1:7">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="15" spans="2:6">
+      <c r="B4" s="2">
+        <f>C4*100+D4</f>
         <v>301</v>
       </c>
       <c r="C4" s="2">
@@ -1139,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="1" ht="15" spans="2:6">
@@ -1157,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:6">
@@ -1175,10 +1386,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="7:7">
